--- a/Code/Results/Cases/Case_1_196/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_196/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2738366847773079</v>
+        <v>0.1424555306933115</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01043408851935901</v>
+        <v>0.01226424981397045</v>
       </c>
       <c r="E2">
-        <v>1.439362196065801</v>
+        <v>0.4190205312761037</v>
       </c>
       <c r="F2">
-        <v>0.9962103723393341</v>
+        <v>0.8117438529910004</v>
       </c>
       <c r="G2">
-        <v>0.9479156296416278</v>
+        <v>0.669986943447725</v>
       </c>
       <c r="H2">
-        <v>0.5421249748482353</v>
+        <v>0.7100009786584565</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>3.132848509721498</v>
+        <v>0.932193313258125</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6313744617568</v>
+        <v>1.293435771131678</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2392504650600245</v>
+        <v>0.1329270018370465</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01058207268731337</v>
+        <v>0.01222692433373318</v>
       </c>
       <c r="E3">
-        <v>1.231827730474123</v>
+        <v>0.3653875206293691</v>
       </c>
       <c r="F3">
-        <v>0.8875099557853048</v>
+        <v>0.7910567660141226</v>
       </c>
       <c r="G3">
-        <v>0.8394591327154615</v>
+        <v>0.6484228125779907</v>
       </c>
       <c r="H3">
-        <v>0.4999207209913266</v>
+        <v>0.7055526869364428</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2.713266229120364</v>
+        <v>0.8130736497739974</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.6793188361025981</v>
+        <v>1.311679579673037</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2181917618883915</v>
+        <v>0.1271470273094053</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01068380300353411</v>
+        <v>0.01220573269201353</v>
       </c>
       <c r="E4">
-        <v>1.107398998381981</v>
+        <v>0.3325690400924088</v>
       </c>
       <c r="F4">
-        <v>0.823227008733042</v>
+        <v>0.7790000758484581</v>
       </c>
       <c r="G4">
-        <v>0.7754541173439122</v>
+        <v>0.6357724868773289</v>
       </c>
       <c r="H4">
-        <v>0.4754132917056211</v>
+        <v>0.7032943838607366</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>2.45800391952983</v>
+        <v>0.7399104512414283</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7100505052569055</v>
+        <v>1.323435997925484</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2096501076763815</v>
+        <v>0.124809526523407</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01072765349074523</v>
+        <v>0.01219753319307415</v>
       </c>
       <c r="E5">
-        <v>1.057328134870559</v>
+        <v>0.3192211660014124</v>
       </c>
       <c r="F5">
-        <v>0.7975865929564918</v>
+        <v>0.7742481333345381</v>
       </c>
       <c r="G5">
-        <v>0.7499532835652332</v>
+        <v>0.6307645355264242</v>
       </c>
       <c r="H5">
-        <v>0.4657484243019212</v>
+        <v>0.7024925944058396</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>2.354463908683215</v>
+        <v>0.7100891770322448</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7228876808208407</v>
+        <v>1.328366122324325</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2082340538109548</v>
+        <v>0.1244224706180006</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01073507061090595</v>
+        <v>0.01219619809329053</v>
       </c>
       <c r="E6">
-        <v>1.049048994634688</v>
+        <v>0.3170062593404595</v>
       </c>
       <c r="F6">
-        <v>0.7933608206712961</v>
+        <v>0.7734687873153661</v>
       </c>
       <c r="G6">
-        <v>0.7457521167423948</v>
+        <v>0.629941821098015</v>
       </c>
       <c r="H6">
-        <v>0.4641621642381608</v>
+        <v>0.7023666013440533</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>2.337297138507864</v>
+        <v>0.7051369501528484</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7250379141989143</v>
+        <v>1.329193173161372</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2180764103991635</v>
+        <v>0.1271154303542943</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01068438509768299</v>
+        <v>0.01220562034221295</v>
       </c>
       <c r="E7">
-        <v>1.106721303383424</v>
+        <v>0.3323889240920721</v>
       </c>
       <c r="F7">
-        <v>0.8228790438858056</v>
+        <v>0.7789353378959873</v>
       </c>
       <c r="G7">
-        <v>0.7751079357578874</v>
+        <v>0.6357043536895901</v>
       </c>
       <c r="H7">
-        <v>0.4752816834132432</v>
+        <v>0.7032830914920822</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>2.456605735176595</v>
+        <v>0.7395082992187838</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7102223760510569</v>
+        <v>1.323501923583007</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2618716331666064</v>
+        <v>0.139155524127716</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01048263625117052</v>
+        <v>0.01225102281800083</v>
       </c>
       <c r="E8">
-        <v>1.367106370935019</v>
+        <v>0.4005031094127531</v>
       </c>
       <c r="F8">
-        <v>0.9581803267765707</v>
+        <v>0.8044764077536541</v>
       </c>
       <c r="G8">
-        <v>0.909939346393827</v>
+        <v>0.6624283935808819</v>
       </c>
       <c r="H8">
-        <v>0.527261292587923</v>
+        <v>0.7083687717010179</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2.987614968187614</v>
+        <v>0.8911251354244882</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6476299910346306</v>
+        <v>1.299611011482763</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3493913056421292</v>
+        <v>0.1633214294895282</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01019190437274631</v>
+        <v>0.01235369287405064</v>
       </c>
       <c r="E9">
-        <v>1.907624447156152</v>
+        <v>0.5350789449597642</v>
       </c>
       <c r="F9">
-        <v>1.246176672803585</v>
+        <v>0.8597313139756864</v>
       </c>
       <c r="G9">
-        <v>1.198331411173001</v>
+        <v>0.719576149890429</v>
       </c>
       <c r="H9">
-        <v>0.6419270886810011</v>
+        <v>0.722116260616815</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>4.053373684403084</v>
+        <v>1.188313826996136</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.5357142217204052</v>
+        <v>1.257169298009467</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.4150418629520942</v>
+        <v>0.1814103069771704</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01007472402525877</v>
+        <v>0.01243740363141299</v>
       </c>
       <c r="E10">
-        <v>2.332860913705559</v>
+        <v>0.6347289413529609</v>
       </c>
       <c r="F10">
-        <v>1.476532021281884</v>
+        <v>0.90355182278077</v>
       </c>
       <c r="G10">
-        <v>1.430260995592448</v>
+        <v>0.7645413002500732</v>
       </c>
       <c r="H10">
-        <v>0.7364089377336995</v>
+        <v>0.7345500852917439</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>4.860323780267265</v>
+        <v>1.406673835499873</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.4609515402384057</v>
+        <v>1.228683954465931</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4452875954091269</v>
+        <v>0.1897111742345459</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01005193380678904</v>
+        <v>0.01247728789495639</v>
       </c>
       <c r="E11">
-        <v>2.535097824618617</v>
+        <v>0.6802676102145426</v>
       </c>
       <c r="F11">
-        <v>1.586682783673965</v>
+        <v>0.9242034884202184</v>
       </c>
       <c r="G11">
-        <v>1.541535680122649</v>
+        <v>0.7856633329674878</v>
       </c>
       <c r="H11">
-        <v>0.7822572140103148</v>
+        <v>0.7407205230536533</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>5.234986715238563</v>
+        <v>1.506037106683891</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.42877883988674</v>
+        <v>1.216312791333018</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4568035114269549</v>
+        <v>0.1928647603465521</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01004872188623196</v>
+        <v>0.01249265121182574</v>
       </c>
       <c r="E12">
-        <v>2.613214954872717</v>
+        <v>0.6975445672242415</v>
       </c>
       <c r="F12">
-        <v>1.629289246423681</v>
+        <v>0.9321281463112143</v>
       </c>
       <c r="G12">
-        <v>1.584639354799606</v>
+        <v>0.793759122868579</v>
       </c>
       <c r="H12">
-        <v>0.8000937764684579</v>
+        <v>0.7431316107924602</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>5.378181354753565</v>
+        <v>1.543669102161118</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.416881125923835</v>
+        <v>1.211712773817323</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4543204411259154</v>
+        <v>0.1921851265993411</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.01004915381199822</v>
+        <v>0.0124893308663836</v>
       </c>
       <c r="E13">
-        <v>2.596317985033266</v>
+        <v>0.6938221798461086</v>
       </c>
       <c r="F13">
-        <v>1.620071227278203</v>
+        <v>0.93041677139</v>
       </c>
       <c r="G13">
-        <v>1.575310837677478</v>
+        <v>0.7920111982661808</v>
       </c>
       <c r="H13">
-        <v>0.796230146387785</v>
+        <v>0.7426090189811703</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>5.347279214013497</v>
+        <v>1.535564128501392</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.4194304532099835</v>
+        <v>1.212699699669943</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4462337168415331</v>
+        <v>0.1899704175196177</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01005155426443949</v>
+        <v>0.01247854662842229</v>
       </c>
       <c r="E14">
-        <v>2.541492102611912</v>
+        <v>0.6816883302889778</v>
       </c>
       <c r="F14">
-        <v>1.590169338959811</v>
+        <v>0.9248533574533155</v>
       </c>
       <c r="G14">
-        <v>1.545061624251701</v>
+        <v>0.7863274196880923</v>
       </c>
       <c r="H14">
-        <v>0.783714733514131</v>
+        <v>0.7409173889944043</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>5.246739583564647</v>
+        <v>1.509133002286774</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.4277941574754323</v>
+        <v>1.21593264658021</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4412887484326973</v>
+        <v>0.1886151718771174</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0100537646233434</v>
+        <v>0.0124719748593769</v>
       </c>
       <c r="E15">
-        <v>2.50811829702414</v>
+        <v>0.6742603019180109</v>
       </c>
       <c r="F15">
-        <v>1.571974065222975</v>
+        <v>0.9214592255745373</v>
       </c>
       <c r="G15">
-        <v>1.526663350613148</v>
+        <v>0.7828586587539235</v>
       </c>
       <c r="H15">
-        <v>0.7761125198724415</v>
+        <v>0.7398909317726634</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>5.18533513553507</v>
+        <v>1.492943890367201</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.432955007235984</v>
+        <v>1.217923954979147</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.4130735428973225</v>
+        <v>0.1808692649986625</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01007691058599036</v>
+        <v>0.01243483344053686</v>
       </c>
       <c r="E16">
-        <v>2.319843249001025</v>
+        <v>0.6317572792954138</v>
       </c>
       <c r="F16">
-        <v>1.4694514891479</v>
+        <v>0.9022167233194125</v>
       </c>
       <c r="G16">
-        <v>1.42311627938733</v>
+        <v>0.7631744698508385</v>
       </c>
       <c r="H16">
-        <v>0.7334754942585278</v>
+        <v>0.7341572255183735</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>4.836009925907433</v>
+        <v>1.400180899380018</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.4630928261517795</v>
+        <v>1.229504273115646</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3958672690889813</v>
+        <v>0.1761357759129822</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01009959183743447</v>
+        <v>0.01241251065962246</v>
       </c>
       <c r="E17">
-        <v>2.206773044408934</v>
+        <v>0.605738027076967</v>
       </c>
       <c r="F17">
-        <v>1.408013185623517</v>
+        <v>0.8905966501634168</v>
       </c>
       <c r="G17">
-        <v>1.361162511343423</v>
+        <v>0.7512707231278171</v>
       </c>
       <c r="H17">
-        <v>0.7080953577823266</v>
+        <v>0.7307718644117358</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>4.6238033383122</v>
+        <v>1.343282203908643</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.4820662602194403</v>
+        <v>1.236758947891944</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3860060285610984</v>
+        <v>0.1734199976769304</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01011543647139135</v>
+        <v>0.01239984090144475</v>
       </c>
       <c r="E18">
-        <v>2.142547255972787</v>
+        <v>0.5907918019628084</v>
       </c>
       <c r="F18">
-        <v>1.373171756189436</v>
+        <v>0.8839805563274723</v>
       </c>
       <c r="G18">
-        <v>1.326062094871475</v>
+        <v>0.7444867146987519</v>
       </c>
       <c r="H18">
-        <v>0.693763117136541</v>
+        <v>0.7288730636407763</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>4.502445482674375</v>
+        <v>1.310558364708186</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.4931507965096324</v>
+        <v>1.24098687620472</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.3826730304750043</v>
+        <v>0.1725016541232804</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01012125400977126</v>
+        <v>0.01239558027650034</v>
       </c>
       <c r="E19">
-        <v>2.120932999555066</v>
+        <v>0.5857345126585614</v>
       </c>
       <c r="F19">
-        <v>1.36145677715794</v>
+        <v>0.8817520131094341</v>
       </c>
       <c r="G19">
-        <v>1.314265505298323</v>
+        <v>0.7422004944750142</v>
       </c>
       <c r="H19">
-        <v>0.6889543456202034</v>
+        <v>0.7282384537403175</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>4.461469205543892</v>
+        <v>1.299479085360758</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.496932683228124</v>
+        <v>1.24242785799822</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3976951938003168</v>
+        <v>0.1766389612490542</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01009688092671368</v>
+        <v>0.01241486939111169</v>
       </c>
       <c r="E20">
-        <v>2.218724002574135</v>
+        <v>0.6085057981708388</v>
       </c>
       <c r="F20">
-        <v>1.41450119379023</v>
+        <v>0.8918266361928602</v>
       </c>
       <c r="G20">
-        <v>1.367701423758433</v>
+        <v>0.752531396787532</v>
       </c>
       <c r="H20">
-        <v>0.7107691887989631</v>
+        <v>0.7311272320291948</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>4.646319326204207</v>
+        <v>1.349338872160729</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.480028608702912</v>
+        <v>1.235980957248712</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4486072217247994</v>
+        <v>0.1906206548486438</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01005069281068316</v>
+        <v>0.01248170715631147</v>
       </c>
       <c r="E21">
-        <v>2.557551765262744</v>
+        <v>0.6852514341639591</v>
       </c>
       <c r="F21">
-        <v>1.59892689092527</v>
+        <v>0.9264846265690778</v>
       </c>
       <c r="G21">
-        <v>1.553919136553361</v>
+        <v>0.7879942303894438</v>
       </c>
       <c r="H21">
-        <v>0.7873773856613298</v>
+        <v>0.7414122361719819</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>5.276232755263948</v>
+        <v>1.51689631381538</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.4253296075364483</v>
+        <v>1.214980751517651</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4822497186747654</v>
+        <v>0.1998180476458202</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01005273924147687</v>
+        <v>0.01252690570665749</v>
       </c>
       <c r="E22">
-        <v>2.788100311651164</v>
+        <v>0.7355995436218024</v>
       </c>
       <c r="F22">
-        <v>1.724745796251526</v>
+        <v>0.9497442264093081</v>
       </c>
       <c r="G22">
-        <v>1.681334271345378</v>
+        <v>0.8117392415180404</v>
       </c>
       <c r="H22">
-        <v>0.8402485736745007</v>
+        <v>0.748568441317218</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>5.695730913555053</v>
+        <v>1.626436026247347</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3912559100902486</v>
+        <v>1.201749573893719</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4642576010019184</v>
+        <v>0.1949038257850191</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01004829570395316</v>
+        <v>0.01250264331291362</v>
       </c>
       <c r="E23">
-        <v>2.664117105986051</v>
+        <v>0.7087095095375844</v>
       </c>
       <c r="F23">
-        <v>1.657064556474197</v>
+        <v>0.9372740714552208</v>
       </c>
       <c r="G23">
-        <v>1.61275733161466</v>
+        <v>0.7990136445334883</v>
       </c>
       <c r="H23">
-        <v>0.8117506928828391</v>
+        <v>0.7447091183319401</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>5.471037380964333</v>
+        <v>1.567969444713867</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.4092806926533887</v>
+        <v>1.208766041080379</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.3968686934426984</v>
+        <v>0.1764114538052723</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01009809786788551</v>
+        <v>0.01241380249772561</v>
       </c>
       <c r="E24">
-        <v>2.21331856526615</v>
+        <v>0.6072544498706378</v>
       </c>
       <c r="F24">
-        <v>1.41156647849823</v>
+        <v>0.8912703588659667</v>
       </c>
       <c r="G24">
-        <v>1.364743579237029</v>
+        <v>0.7519612606392343</v>
       </c>
       <c r="H24">
-        <v>0.7095595472404455</v>
+        <v>0.7309664224420658</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>4.636137863514875</v>
+        <v>1.346600689970387</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.480949282905442</v>
+        <v>1.236332508912076</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.325505054815693</v>
+        <v>0.156724912090823</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01025637399951052</v>
+        <v>0.01232446347498417</v>
       </c>
       <c r="E25">
-        <v>1.757263864045498</v>
+        <v>0.4985481870050847</v>
       </c>
       <c r="F25">
-        <v>1.165363289431284</v>
+        <v>0.8442224631986761</v>
       </c>
       <c r="G25">
-        <v>1.117224398914544</v>
+        <v>0.7035994734058875</v>
       </c>
       <c r="H25">
-        <v>0.6093059444923199</v>
+        <v>0.7179897809866986</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>3.761574034236276</v>
+        <v>1.107920699135832</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.5647477988268745</v>
+        <v>1.268178042075494</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_196/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_196/res_line/pl_mw.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1424555306933115</v>
+        <v>0.2738366847771943</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.01226424981397045</v>
+        <v>0.01043408851940342</v>
       </c>
       <c r="E2">
-        <v>0.4190205312761037</v>
+        <v>1.439362196065787</v>
       </c>
       <c r="F2">
-        <v>0.8117438529910004</v>
+        <v>0.9962103723393341</v>
       </c>
       <c r="G2">
-        <v>0.669986943447725</v>
+        <v>0.947915629641642</v>
       </c>
       <c r="H2">
-        <v>0.7100009786584565</v>
+        <v>0.5421249748482353</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.932193313258125</v>
+        <v>3.132848509721498</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.293435771131678</v>
+        <v>0.6313744617568045</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1329270018370465</v>
+        <v>0.2392504650599108</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01222692433373318</v>
+        <v>0.01058207268724587</v>
       </c>
       <c r="E3">
-        <v>0.3653875206293691</v>
+        <v>1.231827730474166</v>
       </c>
       <c r="F3">
-        <v>0.7910567660141226</v>
+        <v>0.887509955785319</v>
       </c>
       <c r="G3">
-        <v>0.6484228125779907</v>
+        <v>0.8394591327154188</v>
       </c>
       <c r="H3">
-        <v>0.7055526869364428</v>
+        <v>0.4999207209914402</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.8130736497739974</v>
+        <v>2.713266229120194</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.311679579673037</v>
+        <v>0.6793188361025999</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1271470273094053</v>
+        <v>0.2181917618885336</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01220573269201353</v>
+        <v>0.01068380300342042</v>
       </c>
       <c r="E4">
-        <v>0.3325690400924088</v>
+        <v>1.10739899838201</v>
       </c>
       <c r="F4">
-        <v>0.7790000758484581</v>
+        <v>0.8232270087330278</v>
       </c>
       <c r="G4">
-        <v>0.6357724868773289</v>
+        <v>0.7754541173438838</v>
       </c>
       <c r="H4">
-        <v>0.7032943838607366</v>
+        <v>0.4754132917057348</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7399104512414283</v>
+        <v>2.45800391952983</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.323435997925484</v>
+        <v>0.7100505052568948</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.124809526523407</v>
+        <v>0.2096501076761257</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01219753319307415</v>
+        <v>0.01072765349063687</v>
       </c>
       <c r="E5">
-        <v>0.3192211660014124</v>
+        <v>1.057328134870559</v>
       </c>
       <c r="F5">
-        <v>0.7742481333345381</v>
+        <v>0.7975865929564634</v>
       </c>
       <c r="G5">
-        <v>0.6307645355264242</v>
+        <v>0.749953283565219</v>
       </c>
       <c r="H5">
-        <v>0.7024925944058396</v>
+        <v>0.4657484243017791</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.7100891770322448</v>
+        <v>2.354463908683158</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.328366122324325</v>
+        <v>0.7228876808209002</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1244224706180006</v>
+        <v>0.2082340538110827</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01219619809329053</v>
+        <v>0.01073507061096457</v>
       </c>
       <c r="E6">
-        <v>0.3170062593404595</v>
+        <v>1.049048994634703</v>
       </c>
       <c r="F6">
-        <v>0.7734687873153661</v>
+        <v>0.7933608206712961</v>
       </c>
       <c r="G6">
-        <v>0.629941821098015</v>
+        <v>0.7457521167424659</v>
       </c>
       <c r="H6">
-        <v>0.7023666013440533</v>
+        <v>0.4641621642381608</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.7051369501528484</v>
+        <v>2.337297138507893</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.329193173161372</v>
+        <v>0.7250379141988592</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1271154303542943</v>
+        <v>0.2180764103991919</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01220562034221295</v>
+        <v>0.01068438509780201</v>
       </c>
       <c r="E7">
-        <v>0.3323889240920721</v>
+        <v>1.106721303383424</v>
       </c>
       <c r="F7">
-        <v>0.7789353378959873</v>
+        <v>0.8228790438857914</v>
       </c>
       <c r="G7">
-        <v>0.6357043536895901</v>
+        <v>0.7751079357578874</v>
       </c>
       <c r="H7">
-        <v>0.7032830914920822</v>
+        <v>0.4752816834132432</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.7395082992187838</v>
+        <v>2.456605735176623</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.323501923583007</v>
+        <v>0.7102223760510116</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.139155524127716</v>
+        <v>0.2618716331664928</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01225102281800083</v>
+        <v>0.01048263625117585</v>
       </c>
       <c r="E8">
-        <v>0.4005031094127531</v>
+        <v>1.367106370935048</v>
       </c>
       <c r="F8">
-        <v>0.8044764077536541</v>
+        <v>0.9581803267765565</v>
       </c>
       <c r="G8">
-        <v>0.6624283935808819</v>
+        <v>0.9099393463938554</v>
       </c>
       <c r="H8">
-        <v>0.7083687717010179</v>
+        <v>0.5272612925878093</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8911251354244882</v>
+        <v>2.987614968187557</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.299611011482763</v>
+        <v>0.6476299910346341</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1633214294895282</v>
+        <v>0.3493913056422286</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01235369287405064</v>
+        <v>0.01019190437285999</v>
       </c>
       <c r="E9">
-        <v>0.5350789449597642</v>
+        <v>1.907624447156152</v>
       </c>
       <c r="F9">
-        <v>0.8597313139756864</v>
+        <v>1.246176672803614</v>
       </c>
       <c r="G9">
-        <v>0.719576149890429</v>
+        <v>1.198331411173029</v>
       </c>
       <c r="H9">
-        <v>0.722116260616815</v>
+        <v>0.6419270886810011</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.188313826996136</v>
+        <v>4.053373684403084</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.257169298009467</v>
+        <v>0.5357142217203998</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1814103069771704</v>
+        <v>0.4150418629520942</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01243740363141299</v>
+        <v>0.01007472402542575</v>
       </c>
       <c r="E10">
-        <v>0.6347289413529609</v>
+        <v>2.332860913705545</v>
       </c>
       <c r="F10">
-        <v>0.90355182278077</v>
+        <v>1.476532021281884</v>
       </c>
       <c r="G10">
-        <v>0.7645413002500732</v>
+        <v>1.430260995592448</v>
       </c>
       <c r="H10">
-        <v>0.7345500852917439</v>
+        <v>0.7364089377336711</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.406673835499873</v>
+        <v>4.860323780267379</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.228683954465931</v>
+        <v>0.4609515402383391</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.1897111742345459</v>
+        <v>0.4452875954091269</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.01247728789495639</v>
+        <v>0.01005193380676772</v>
       </c>
       <c r="E11">
-        <v>0.6802676102145426</v>
+        <v>2.535097824618646</v>
       </c>
       <c r="F11">
-        <v>0.9242034884202184</v>
+        <v>1.586682783673979</v>
       </c>
       <c r="G11">
-        <v>0.7856633329674878</v>
+        <v>1.541535680122593</v>
       </c>
       <c r="H11">
-        <v>0.7407205230536533</v>
+        <v>0.7822572140103148</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.506037106683891</v>
+        <v>5.234986715238506</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.216312791333018</v>
+        <v>0.4287788398867498</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.1928647603465521</v>
+        <v>0.4568035114269549</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.01249265121182574</v>
+        <v>0.01004872188622841</v>
       </c>
       <c r="E12">
-        <v>0.6975445672242415</v>
+        <v>2.613214954872745</v>
       </c>
       <c r="F12">
-        <v>0.9321281463112143</v>
+        <v>1.629289246423696</v>
       </c>
       <c r="G12">
-        <v>0.793759122868579</v>
+        <v>1.584639354799663</v>
       </c>
       <c r="H12">
-        <v>0.7431316107924602</v>
+        <v>0.8000937764685716</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.543669102161118</v>
+        <v>5.378181354753565</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.211712773817323</v>
+        <v>0.4168811259238288</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1921851265993411</v>
+        <v>0.4543204411259154</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.0124893308663836</v>
+        <v>0.01004915381188454</v>
       </c>
       <c r="E13">
-        <v>0.6938221798461086</v>
+        <v>2.596317985033281</v>
       </c>
       <c r="F13">
-        <v>0.93041677139</v>
+        <v>1.620071227278217</v>
       </c>
       <c r="G13">
-        <v>0.7920111982661808</v>
+        <v>1.575310837677421</v>
       </c>
       <c r="H13">
-        <v>0.7426090189811703</v>
+        <v>0.796230146387785</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.535564128501392</v>
+        <v>5.347279214013554</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.212699699669943</v>
+        <v>0.4194304532100332</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1899704175196177</v>
+        <v>0.4462337168414194</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.01247854662842229</v>
+        <v>0.01005155426444304</v>
       </c>
       <c r="E14">
-        <v>0.6816883302889778</v>
+        <v>2.54149210261194</v>
       </c>
       <c r="F14">
-        <v>0.9248533574533155</v>
+        <v>1.590169338959797</v>
       </c>
       <c r="G14">
-        <v>0.7863274196880923</v>
+        <v>1.545061624251701</v>
       </c>
       <c r="H14">
-        <v>0.7409173889944043</v>
+        <v>0.783714733514131</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.509133002286774</v>
+        <v>5.246739583564761</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.21593264658021</v>
+        <v>0.4277941574754944</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1886151718771174</v>
+        <v>0.4412887484329389</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.0124719748593769</v>
+        <v>0.01005376462333984</v>
       </c>
       <c r="E15">
-        <v>0.6742603019180109</v>
+        <v>2.508118297024183</v>
       </c>
       <c r="F15">
-        <v>0.9214592255745373</v>
+        <v>1.57197406522296</v>
       </c>
       <c r="G15">
-        <v>0.7828586587539235</v>
+        <v>1.526663350613177</v>
       </c>
       <c r="H15">
-        <v>0.7398909317726634</v>
+        <v>0.7761125198724415</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.492943890367201</v>
+        <v>5.185335135535126</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.217923954979147</v>
+        <v>0.4329550072359218</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.1808692649986625</v>
+        <v>0.4130735428970951</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.01243483344053686</v>
+        <v>0.01007691058599747</v>
       </c>
       <c r="E16">
-        <v>0.6317572792954138</v>
+        <v>2.319843249001039</v>
       </c>
       <c r="F16">
-        <v>0.9022167233194125</v>
+        <v>1.469451489147886</v>
       </c>
       <c r="G16">
-        <v>0.7631744698508385</v>
+        <v>1.42311627938733</v>
       </c>
       <c r="H16">
-        <v>0.7341572255183735</v>
+        <v>0.7334754942585278</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.400180899380018</v>
+        <v>4.836009925907604</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.229504273115646</v>
+        <v>0.4630928261517182</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1761357759129822</v>
+        <v>0.3958672690891092</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.01241251065962246</v>
+        <v>0.01009959183762987</v>
       </c>
       <c r="E17">
-        <v>0.605738027076967</v>
+        <v>2.206773044408948</v>
       </c>
       <c r="F17">
-        <v>0.8905966501634168</v>
+        <v>1.408013185623517</v>
       </c>
       <c r="G17">
-        <v>0.7512707231278171</v>
+        <v>1.361162511343508</v>
       </c>
       <c r="H17">
-        <v>0.7307718644117358</v>
+        <v>0.7080953577824403</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.343282203908643</v>
+        <v>4.62380333831203</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.236758947891944</v>
+        <v>0.4820662602194403</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1734199976769304</v>
+        <v>0.3860060285612121</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.01239984090144475</v>
+        <v>0.01011543647128121</v>
       </c>
       <c r="E18">
-        <v>0.5907918019628084</v>
+        <v>2.142547255972744</v>
       </c>
       <c r="F18">
-        <v>0.8839805563274723</v>
+        <v>1.37317175618945</v>
       </c>
       <c r="G18">
-        <v>0.7444867146987519</v>
+        <v>1.326062094871531</v>
       </c>
       <c r="H18">
-        <v>0.7288730636407763</v>
+        <v>0.6937631171364274</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.310558364708186</v>
+        <v>4.502445482674375</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.24098687620472</v>
+        <v>0.4931507965096813</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.1725016541232804</v>
+        <v>0.3826730304747912</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.01239558027650034</v>
+        <v>0.01012125400976771</v>
       </c>
       <c r="E19">
-        <v>0.5857345126585614</v>
+        <v>2.120932999555095</v>
       </c>
       <c r="F19">
-        <v>0.8817520131094341</v>
+        <v>1.361456777157954</v>
       </c>
       <c r="G19">
-        <v>0.7422004944750142</v>
+        <v>1.314265505298323</v>
       </c>
       <c r="H19">
-        <v>0.7282384537403175</v>
+        <v>0.6889543456202034</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.299479085360758</v>
+        <v>4.461469205543779</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.24242785799822</v>
+        <v>0.4969326832281746</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1766389612490542</v>
+        <v>0.3976951938003026</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.01241486939111169</v>
+        <v>0.01009688092671013</v>
       </c>
       <c r="E20">
-        <v>0.6085057981708388</v>
+        <v>2.218724002574149</v>
       </c>
       <c r="F20">
-        <v>0.8918266361928602</v>
+        <v>1.414501193790215</v>
       </c>
       <c r="G20">
-        <v>0.752531396787532</v>
+        <v>1.367701423758461</v>
       </c>
       <c r="H20">
-        <v>0.7311272320291948</v>
+        <v>0.7107691887989631</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.349338872160729</v>
+        <v>4.646319326204264</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.235980957248712</v>
+        <v>0.4800286087029635</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1906206548486438</v>
+        <v>0.4486072217249415</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.01248170715631147</v>
+        <v>0.01005069281049131</v>
       </c>
       <c r="E21">
-        <v>0.6852514341639591</v>
+        <v>2.557551765262772</v>
       </c>
       <c r="F21">
-        <v>0.9264846265690778</v>
+        <v>1.598926890925284</v>
       </c>
       <c r="G21">
-        <v>0.7879942303894438</v>
+        <v>1.553919136553333</v>
       </c>
       <c r="H21">
-        <v>0.7414122361719819</v>
+        <v>0.7873773856614719</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.51689631381538</v>
+        <v>5.276232755263891</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.214980751517651</v>
+        <v>0.4253296075364608</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1998180476458202</v>
+        <v>0.482249718674737</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.01252690570665749</v>
+        <v>0.01005273924156924</v>
       </c>
       <c r="E22">
-        <v>0.7355995436218024</v>
+        <v>2.788100311651164</v>
       </c>
       <c r="F22">
-        <v>0.9497442264093081</v>
+        <v>1.724745796251554</v>
       </c>
       <c r="G22">
-        <v>0.8117392415180404</v>
+        <v>1.681334271345378</v>
       </c>
       <c r="H22">
-        <v>0.748568441317218</v>
+        <v>0.8402485736745007</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.626436026247347</v>
+        <v>5.695730913555053</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.201749573893719</v>
+        <v>0.391255910090246</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1949038257850191</v>
+        <v>0.4642576010020463</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.01250264331291362</v>
+        <v>0.01004829570394605</v>
       </c>
       <c r="E23">
-        <v>0.7087095095375844</v>
+        <v>2.664117105986008</v>
       </c>
       <c r="F23">
-        <v>0.9372740714552208</v>
+        <v>1.657064556474197</v>
       </c>
       <c r="G23">
-        <v>0.7990136445334883</v>
+        <v>1.612757331614688</v>
       </c>
       <c r="H23">
-        <v>0.7447091183319401</v>
+        <v>0.8117506928828391</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.567969444713867</v>
+        <v>5.471037380964503</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.208766041080379</v>
+        <v>0.4092806926533861</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.1764114538052723</v>
+        <v>0.3968686934427126</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.01241380249772561</v>
+        <v>0.0100980978679992</v>
       </c>
       <c r="E24">
-        <v>0.6072544498706378</v>
+        <v>2.213318565266178</v>
       </c>
       <c r="F24">
-        <v>0.8912703588659667</v>
+        <v>1.41156647849823</v>
       </c>
       <c r="G24">
-        <v>0.7519612606392343</v>
+        <v>1.364743579237086</v>
       </c>
       <c r="H24">
-        <v>0.7309664224420658</v>
+        <v>0.7095595472404455</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.346600689970387</v>
+        <v>4.636137863514932</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.236332508912076</v>
+        <v>0.4809492829054411</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.156724912090823</v>
+        <v>0.3255050548158067</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.01232446347498417</v>
+        <v>0.01025637399943591</v>
       </c>
       <c r="E25">
-        <v>0.4985481870050847</v>
+        <v>1.75726386404547</v>
       </c>
       <c r="F25">
-        <v>0.8442224631986761</v>
+        <v>1.165363289431298</v>
       </c>
       <c r="G25">
-        <v>0.7035994734058875</v>
+        <v>1.117224398914516</v>
       </c>
       <c r="H25">
-        <v>0.7179897809866986</v>
+        <v>0.6093059444924336</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.107920699135832</v>
+        <v>3.761574034236332</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.268178042075494</v>
+        <v>0.5647477988268728</v>
       </c>
       <c r="O25">
         <v>0</v>
